--- a/fastqFiles/fastqFiles_10.27.20.xlsx
+++ b/fastqFiles/fastqFiles_10.27.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACBCB4-AA94-B247-AA40-4CEA2BA79BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAFF91-57F4-FC47-B941-9E92A9E8FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{EA8F554D-48CA-7041-8728-45E682733048}"/>
   </bookViews>
@@ -592,10 +592,16 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
